--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il1rapl1-Ptprf.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il1rapl1-Ptprf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Il1rapl1</t>
+  </si>
+  <si>
+    <t>Ptprf</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Il1rapl1</t>
-  </si>
-  <si>
-    <t>Ptprf</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01413533333333333</v>
+        <v>0.001676333333333333</v>
       </c>
       <c r="H2">
-        <v>0.042406</v>
+        <v>0.005029</v>
       </c>
       <c r="I2">
-        <v>0.8939812374828714</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8939812374828713</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2171733333333334</v>
+        <v>0.4211356666666666</v>
       </c>
       <c r="N2">
-        <v>0.6515200000000001</v>
+        <v>1.263407</v>
       </c>
       <c r="O2">
-        <v>0.03179704241434194</v>
+        <v>0.05962259118326733</v>
       </c>
       <c r="P2">
-        <v>0.03179704241434193</v>
+        <v>0.05962259118326733</v>
       </c>
       <c r="Q2">
-        <v>0.003069817457777778</v>
+        <v>0.0007059637558888888</v>
       </c>
       <c r="R2">
-        <v>0.02762835712</v>
+        <v>0.006353673803</v>
       </c>
       <c r="S2">
-        <v>0.02842595932586876</v>
+        <v>0.05962259118326733</v>
       </c>
       <c r="T2">
-        <v>0.02842595932586875</v>
+        <v>0.05962259118326733</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -602,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01413533333333333</v>
+        <v>0.001676333333333333</v>
       </c>
       <c r="H3">
-        <v>0.042406</v>
+        <v>0.005029</v>
       </c>
       <c r="I3">
-        <v>0.8939812374828714</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8939812374828713</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>16.402974</v>
       </c>
       <c r="O3">
-        <v>0.8005372973958559</v>
+        <v>0.7740876954075475</v>
       </c>
       <c r="P3">
-        <v>0.8005372973958557</v>
+        <v>0.7740876954075474</v>
       </c>
       <c r="Q3">
-        <v>0.07728716838266667</v>
+        <v>0.009165617360666666</v>
       </c>
       <c r="R3">
-        <v>0.695584515444</v>
+        <v>0.08249055624599999</v>
       </c>
       <c r="S3">
-        <v>0.7156653237771406</v>
+        <v>0.7740876954075475</v>
       </c>
       <c r="T3">
-        <v>0.7156653237771404</v>
+        <v>0.7740876954075474</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -664,46 +661,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01413533333333333</v>
+        <v>0.001676333333333333</v>
       </c>
       <c r="H4">
-        <v>0.042406</v>
+        <v>0.005029</v>
       </c>
       <c r="I4">
-        <v>0.8939812374828714</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8939812374828713</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01599466666666667</v>
+        <v>0.3825986666666667</v>
       </c>
       <c r="N4">
-        <v>0.047984</v>
+        <v>1.147796</v>
       </c>
       <c r="O4">
-        <v>0.002341830309445272</v>
+        <v>0.05416668711649494</v>
       </c>
       <c r="P4">
-        <v>0.002341830309445271</v>
+        <v>0.05416668711649493</v>
       </c>
       <c r="Q4">
-        <v>0.0002260899448888889</v>
+        <v>0.0006413628982222222</v>
       </c>
       <c r="R4">
-        <v>0.002034809504</v>
+        <v>0.005772266084</v>
       </c>
       <c r="S4">
-        <v>0.00209355235801278</v>
+        <v>0.05416668711649494</v>
       </c>
       <c r="T4">
-        <v>0.002093552358012779</v>
+        <v>0.05416668711649493</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01413533333333333</v>
+        <v>0.001676333333333333</v>
       </c>
       <c r="H5">
-        <v>0.042406</v>
+        <v>0.005029</v>
       </c>
       <c r="I5">
-        <v>0.8939812374828714</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8939812374828713</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,400 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.108915333333333</v>
+        <v>0.7919649999999999</v>
       </c>
       <c r="N5">
-        <v>3.326746</v>
+        <v>2.375895</v>
       </c>
       <c r="O5">
-        <v>0.1623598410850663</v>
+        <v>0.1121230262926903</v>
       </c>
       <c r="P5">
-        <v>0.1623598410850662</v>
+        <v>0.1121230262926903</v>
       </c>
       <c r="Q5">
-        <v>0.01567488787511111</v>
+        <v>0.001327597328333333</v>
       </c>
       <c r="R5">
-        <v>0.141073990876</v>
+        <v>0.011948375955</v>
       </c>
       <c r="S5">
-        <v>0.1451466516507499</v>
+        <v>0.1121230262926903</v>
       </c>
       <c r="T5">
-        <v>0.1451466516507498</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.01413533333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.042406</v>
-      </c>
-      <c r="I6">
-        <v>0.8939812374828714</v>
-      </c>
-      <c r="J6">
-        <v>0.8939812374828713</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.020244</v>
-      </c>
-      <c r="N6">
-        <v>0.060732</v>
-      </c>
-      <c r="O6">
-        <v>0.002963988795290727</v>
-      </c>
-      <c r="P6">
-        <v>0.002963988795290726</v>
-      </c>
-      <c r="Q6">
-        <v>0.000286155688</v>
-      </c>
-      <c r="R6">
-        <v>0.002575401192</v>
-      </c>
-      <c r="S6">
-        <v>0.002649750371099369</v>
-      </c>
-      <c r="T6">
-        <v>0.002649750371099368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.001676333333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.005029</v>
-      </c>
-      <c r="I7">
-        <v>0.1060187625171287</v>
-      </c>
-      <c r="J7">
-        <v>0.1060187625171287</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.2171733333333334</v>
-      </c>
-      <c r="N7">
-        <v>0.6515200000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.03179704241434194</v>
-      </c>
-      <c r="P7">
-        <v>0.03179704241434193</v>
-      </c>
-      <c r="Q7">
-        <v>0.0003640548977777778</v>
-      </c>
-      <c r="R7">
-        <v>0.00327649408</v>
-      </c>
-      <c r="S7">
-        <v>0.003371083088473188</v>
-      </c>
-      <c r="T7">
-        <v>0.003371083088473186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.001676333333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.005029</v>
-      </c>
-      <c r="I8">
-        <v>0.1060187625171287</v>
-      </c>
-      <c r="J8">
-        <v>0.1060187625171287</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>5.467658</v>
-      </c>
-      <c r="N8">
-        <v>16.402974</v>
-      </c>
-      <c r="O8">
-        <v>0.8005372973958559</v>
-      </c>
-      <c r="P8">
-        <v>0.8005372973958557</v>
-      </c>
-      <c r="Q8">
-        <v>0.009165617360666666</v>
-      </c>
-      <c r="R8">
-        <v>0.08249055624599999</v>
-      </c>
-      <c r="S8">
-        <v>0.08487197361871529</v>
-      </c>
-      <c r="T8">
-        <v>0.08487197361871525</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.001676333333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.005029</v>
-      </c>
-      <c r="I9">
-        <v>0.1060187625171287</v>
-      </c>
-      <c r="J9">
-        <v>0.1060187625171287</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.01599466666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.047984</v>
-      </c>
-      <c r="O9">
-        <v>0.002341830309445272</v>
-      </c>
-      <c r="P9">
-        <v>0.002341830309445271</v>
-      </c>
-      <c r="Q9">
-        <v>2.681239288888889E-05</v>
-      </c>
-      <c r="R9">
-        <v>0.000241311536</v>
-      </c>
-      <c r="S9">
-        <v>0.0002482779514324923</v>
-      </c>
-      <c r="T9">
-        <v>0.0002482779514324922</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.001676333333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.005029</v>
-      </c>
-      <c r="I10">
-        <v>0.1060187625171287</v>
-      </c>
-      <c r="J10">
-        <v>0.1060187625171287</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.108915333333333</v>
-      </c>
-      <c r="N10">
-        <v>3.326746</v>
-      </c>
-      <c r="O10">
-        <v>0.1623598410850663</v>
-      </c>
-      <c r="P10">
-        <v>0.1623598410850662</v>
-      </c>
-      <c r="Q10">
-        <v>0.001858911737111111</v>
-      </c>
-      <c r="R10">
-        <v>0.016730205634</v>
-      </c>
-      <c r="S10">
-        <v>0.0172131894343164</v>
-      </c>
-      <c r="T10">
-        <v>0.01721318943431639</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.001676333333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.005029</v>
-      </c>
-      <c r="I11">
-        <v>0.1060187625171287</v>
-      </c>
-      <c r="J11">
-        <v>0.1060187625171287</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.020244</v>
-      </c>
-      <c r="N11">
-        <v>0.060732</v>
-      </c>
-      <c r="O11">
-        <v>0.002963988795290727</v>
-      </c>
-      <c r="P11">
-        <v>0.002963988795290726</v>
-      </c>
-      <c r="Q11">
-        <v>3.3935692E-05</v>
-      </c>
-      <c r="R11">
-        <v>0.000305421228</v>
-      </c>
-      <c r="S11">
-        <v>0.000314238424191358</v>
-      </c>
-      <c r="T11">
-        <v>0.0003142384241913579</v>
+        <v>0.1121230262926903</v>
       </c>
     </row>
   </sheetData>
